--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -75,34 +75,28 @@
     <t>EmpReTypePassword</t>
   </si>
   <si>
-    <t>SearchBox</t>
-  </si>
-  <si>
     <t xml:space="preserve">actiTIME - User List </t>
   </si>
   <si>
-    <t>manor</t>
-  </si>
-  <si>
-    <t>Kanor</t>
-  </si>
-  <si>
-    <t>Lunar</t>
-  </si>
-  <si>
-    <t>Ibarrri</t>
-  </si>
-  <si>
-    <t>Lunar887@gmail.com</t>
-  </si>
-  <si>
-    <t>kanor776@gmail.com</t>
-  </si>
-  <si>
-    <t>kanor</t>
-  </si>
-  <si>
-    <t>lunar</t>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Samy</t>
+  </si>
+  <si>
+    <t>Sandrew</t>
+  </si>
+  <si>
+    <t>sandreas23.53@gmail.com</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Jacas</t>
+  </si>
+  <si>
+    <t>jacas232@agils.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +445,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,7 +508,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,17 +550,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -596,57 +590,68 @@
       <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>7788</v>
+        <v>4444</v>
       </c>
       <c r="G2">
-        <v>7788</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>7987</v>
+      </c>
+      <c r="G3">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>9988</v>
-      </c>
-      <c r="G3">
-        <v>9988</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>5555</v>
+      </c>
+      <c r="G5">
+        <v>5555</v>
       </c>
     </row>
   </sheetData>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Macro1" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
   <si>
     <t>UserName</t>
   </si>
@@ -63,40 +62,169 @@
     <t>EmailID</t>
   </si>
   <si>
-    <t>EmpUsername</t>
-  </si>
-  <si>
-    <t>EmpPassword</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actiTIME-User ListTitle </t>
-  </si>
-  <si>
-    <t>EmpReTypePassword</t>
+    <t>actiTIME 2017.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actiTIME -  User List </t>
+  </si>
+  <si>
+    <t>actiTIME -  User List Title</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>ActiTime 1.0</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Name</t>
+  </si>
+  <si>
+    <t>CreateUserTest</t>
+  </si>
+  <si>
+    <t>RetypePassword</t>
+  </si>
+  <si>
+    <t>ActiTime 1.1</t>
+  </si>
+  <si>
+    <t>ExistingUserTest</t>
+  </si>
+  <si>
+    <t>ActiTime 1.2</t>
+  </si>
+  <si>
+    <t>UserNavigationTest</t>
+  </si>
+  <si>
+    <t>ActiTime 1.3</t>
+  </si>
+  <si>
+    <t>UpdatingUserTest</t>
+  </si>
+  <si>
+    <t>ActiTime 1.4</t>
+  </si>
+  <si>
+    <t>DeletingTheUser</t>
+  </si>
+  <si>
+    <t>ActiTime 1.5</t>
+  </si>
+  <si>
+    <t>Login User updation</t>
+  </si>
+  <si>
+    <t>Watson</t>
+  </si>
+  <si>
+    <t>ActiTime 1.6</t>
+  </si>
+  <si>
+    <t>Invalid Password Login</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t xml:space="preserve">actiTIME - User List </t>
   </si>
   <si>
+    <t>Poulomi</t>
+  </si>
+  <si>
+    <t>Chand</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
     <t>Martin</t>
   </si>
   <si>
-    <t>Samy</t>
-  </si>
-  <si>
-    <t>Sandrew</t>
-  </si>
-  <si>
-    <t>sandreas23.53@gmail.com</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Jacas</t>
-  </si>
-  <si>
-    <t>jacas232@agils.com</t>
+    <t>faruk.martn23@gmail.com</t>
+  </si>
+  <si>
+    <t>faruk</t>
+  </si>
+  <si>
+    <t>Suku</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>suku.mani233@gmail.com</t>
+  </si>
+  <si>
+    <t>suku</t>
+  </si>
+  <si>
+    <t>Chandrani</t>
+  </si>
+  <si>
+    <t>poulomi.chandra3344@gmail.com</t>
+  </si>
+  <si>
+    <t>chandra</t>
+  </si>
+  <si>
+    <t>Paromita</t>
+  </si>
+  <si>
+    <t>paromita334@gamis.com</t>
+  </si>
+  <si>
+    <t>Paomita</t>
+  </si>
+  <si>
+    <t>PriyaManu</t>
+  </si>
+  <si>
+    <t>Naresh</t>
+  </si>
+  <si>
+    <t>Priya.m323@gnas.cim</t>
+  </si>
+  <si>
+    <t>priyaman</t>
+  </si>
+  <si>
+    <t>Sekhar</t>
+  </si>
+  <si>
+    <t>sekhar.c2323@gmail.com</t>
+  </si>
+  <si>
+    <t>sekhar</t>
+  </si>
+  <si>
+    <t>Supriya</t>
+  </si>
+  <si>
+    <t>Supriya.w344@gmail.cosm</t>
+  </si>
+  <si>
+    <t>supriya</t>
+  </si>
+  <si>
+    <t>JosephN</t>
+  </si>
+  <si>
+    <t>Naidu</t>
+  </si>
+  <si>
+    <t>joseph32@gmail.com</t>
+  </si>
+  <si>
+    <t>joseph</t>
   </si>
 </sst>
 </file>
@@ -119,17 +247,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,13 +282,23 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,93 +580,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -538,128 +795,416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D14" sqref="D14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1111</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1121</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2">
-        <v>4444</v>
-      </c>
-      <c r="G2">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>7987</v>
-      </c>
-      <c r="G3">
-        <v>7987</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>5555</v>
-      </c>
-      <c r="G5">
-        <v>5555</v>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1121</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1331</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8889</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11123</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9980</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9980</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3334</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9980</v>
+      </c>
+      <c r="I12" s="7">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9980</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2344</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9980</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F7" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F12" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>